--- a/project/HLR @1 ....xlsx
+++ b/project/HLR @1 ....xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="19140" windowHeight="7344"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>HLR</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">                              purchase button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                close button </t>
   </si>
   <si>
     <t xml:space="preserve">                         login icon </t>
@@ -267,27 +264,6 @@
     <t xml:space="preserve">                               Phone category </t>
   </si>
   <si>
-    <t xml:space="preserve">while click on it, it opens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">products image </t>
-  </si>
-  <si>
-    <t xml:space="preserve">while click on it, it does not open products details. </t>
-  </si>
-  <si>
-    <t>products name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while click on it, it opens the products details. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">while click on it, it it does not open products details. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">products name </t>
-  </si>
-  <si>
     <t xml:space="preserve">product image </t>
   </si>
   <si>
@@ -297,10 +273,31 @@
     <t xml:space="preserve">product name </t>
   </si>
   <si>
-    <t xml:space="preserve">All cart items </t>
-  </si>
-  <si>
     <t xml:space="preserve">while click on it , it added product`s in cart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log out button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while click on it, it logged out succesfully. </t>
+  </si>
+  <si>
+    <t>welcome button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while click on it, it refresh the page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while click on it, it close the place order page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">while click on it, it opens  cetegories of relevent products. </t>
+  </si>
+  <si>
+    <t>Product details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to  cart items </t>
   </si>
 </sst>
 </file>
@@ -397,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,9 +447,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,50 +789,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.26953125" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" customWidth="1"/>
-    <col min="3" max="3" width="61.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -823,22 +840,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>200</v>
       </c>
@@ -846,22 +863,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>300</v>
       </c>
@@ -869,17 +886,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>400</v>
       </c>
@@ -887,21 +904,21 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>401</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>402</v>
       </c>
@@ -909,10 +926,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>403</v>
       </c>
@@ -920,57 +937,57 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>500</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>501</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>502</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>600</v>
       </c>
@@ -978,10 +995,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>601</v>
       </c>
@@ -989,10 +1006,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>602</v>
       </c>
@@ -1000,321 +1017,342 @@
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>603</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>604</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>605</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>700</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="17">
-        <v>700</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="17">
+      <c r="C29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
         <v>701</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
-        <v>702</v>
-      </c>
       <c r="B30" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
+        <v>702</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>703</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>704</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <v>705</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>800</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>801</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>802</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>803</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <v>800</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <v>801</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="17">
-        <v>802</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>900</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>901</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>1000</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="17">
-        <v>803</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="17">
-        <v>900</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>1001</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="17">
+        <v>1002</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>1003</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="24"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>1100</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>1101</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
+        <v>1102</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="22">
+        <v>1103</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="17">
-        <v>901</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="17">
-        <v>1000</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="17">
-        <v>1001</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="17">
-        <v>1002</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="17">
-        <v>1003</v>
-      </c>
-      <c r="B46" s="17" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <v>1104</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="19">
-        <v>1004</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="19">
-        <v>1005</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="19">
-        <v>1006</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="17">
-        <v>1007</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="C56" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="15">
-        <v>1008</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="21">
-        <v>1009</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="17">
-        <v>1010</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="15">
-        <v>1011</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="22">
-        <v>1012</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>83</v>
-      </c>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1336,29 +1374,29 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="3" max="3" width="52.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="3" max="3" width="52.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>700</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1366,10 +1404,10 @@
         <v>701</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1377,10 +1415,10 @@
         <v>702</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1388,10 +1426,10 @@
         <v>703</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project/HLR @1 ....xlsx
+++ b/project/HLR @1 ....xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIMANSHU JOSHI\Desktop\git\SoftwareTesting\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35489207-936F-4802-988A-5C83BD9AB54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="19140" windowHeight="7344"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="HLR" sheetId="1" r:id="rId1"/>
+    <sheet name="Test case " sheetId="2" r:id="rId2"/>
+    <sheet name="defect report " sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="345">
   <si>
     <t>HLR</t>
   </si>
@@ -69,9 +75,6 @@
     <t xml:space="preserve">                                    cart icon </t>
   </si>
   <si>
-    <t xml:space="preserve">log in </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                 delete button  </t>
   </si>
   <si>
@@ -79,15 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">                              purchase button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         login icon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                             log in button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       close button   </t>
   </si>
   <si>
     <t>Sign up</t>
@@ -108,27 +102,12 @@
     </r>
   </si>
   <si>
-    <t>while click on it , it close login page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     Log out button </t>
-  </si>
-  <si>
     <t xml:space="preserve">sign up icon </t>
   </si>
   <si>
-    <t xml:space="preserve">While click on it , it redirect to home page.  </t>
-  </si>
-  <si>
-    <t>while click on it , it opens login page.</t>
-  </si>
-  <si>
     <t xml:space="preserve">sign up button </t>
   </si>
   <si>
-    <t>while click on it, logged in succesfully.</t>
-  </si>
-  <si>
     <t xml:space="preserve">close button </t>
   </si>
   <si>
@@ -298,13 +277,805 @@
   </si>
   <si>
     <t xml:space="preserve">Add to  cart items </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case ID </t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre condition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check website URL </t>
+  </si>
+  <si>
+    <t>to test  website URL on crome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser , internet , website must be on working condition </t>
+  </si>
+  <si>
+    <t>1) Enter the URL   2) Press the enter key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should open the application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It open the application </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Check website URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test website URL on mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Check logo button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test  logo button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter the URL   2) Press the enter key 3) tap on the logo button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should redirect to home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It redirect to home page </t>
+  </si>
+  <si>
+    <t>Check Home button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test home  button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter the URL   2) Press the enter key 3) tap on the  home button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should  refresh the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It refresh the home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check contact button </t>
+  </si>
+  <si>
+    <t>To test  contact button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter the URL   2) Press the enter key 3) tap on the contact button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should open the contact  page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It open the contact page </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check cross button</t>
+  </si>
+  <si>
+    <t>To test  cross button</t>
+  </si>
+  <si>
+    <t>Browser , internet , website must be on working condition</t>
+  </si>
+  <si>
+    <t>1) Enter the URL   2) Press the enter key 3) tap on the contact button 4) click on the cross button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should  close  the contact  page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It close the contact page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass </t>
+  </si>
+  <si>
+    <t>check send message button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test  send message button wiith contact email, contact name, and messgae </t>
+  </si>
+  <si>
+    <t>1)Enter the URL   2) Press the enter key 3) tap on the contact button 4) click on the  send message button</t>
+  </si>
+  <si>
+    <t>It should  sent message</t>
+  </si>
+  <si>
+    <t>it send message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test send message button with null contact email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not send message with null contact email. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it  send message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test send message button with null contact name </t>
+  </si>
+  <si>
+    <t>2)Enter the URL   2) Press the enter key 3) tap on the contact button 4) click on the  send message button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not send message with null contact name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test send message button with null send messgae field  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not send message with null send message field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it send message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test send message field with all null field of contact page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it  should not send message with null field of contact page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it send messge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check close button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the close button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should close the contact page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check about us  button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the about us button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL   2) Press the enter key  3)click on the   about us button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should display the description of product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it reditrect to a random page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to test the cross button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL   2) Press the enter key  3) click on the   about us button 4) click on the cross button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should close the about us page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it close the about us Page  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL   2) Press the enter key 3) click on the   about us button 4) click on the close  button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the cart icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL   2) Press the enter key 3) click on the cart </t>
+  </si>
+  <si>
+    <t>It should open the cart page.</t>
+  </si>
+  <si>
+    <t>it open the cart Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the delete button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should  delete product from cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it delete product from cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">place order button </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to test the place order button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL   2) Press the enter key 3) click on the cart 4) click on the place order button </t>
+  </si>
+  <si>
+    <t>It should open the place order page .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it open the place order  page. </t>
+  </si>
+  <si>
+    <t>to test the cross burton</t>
+  </si>
+  <si>
+    <t>1)Enter the URL   2) Press the enter key 3) click on the cart 4) click on the cross button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should close the place order page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it close the  place order page </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Purchase button </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to test the  purchase button, fill it  with  all required details </t>
+  </si>
+  <si>
+    <t>1) Enter the URL 2) press the enter key 3) click on the cart button 4) click on the place order button5) Click on the purchase button</t>
+  </si>
+  <si>
+    <t>Name: Bhumikapanwar ,country: India, City: Ahemdabad, Credit card:75236328                Month: april, Year: 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It  should booked order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It booked order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the purchase button with null name field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not booked order with null name field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it did not booked order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test the purchase button with  null country field </t>
+  </si>
+  <si>
+    <t>) Enter the URL 2) press the enter key 3) click on the cart button 4) click on the place order button5) Click on the purchase button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not booked order with null  country field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it booked order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To test the purchase button with  null city  field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not booked order with null city field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puchase button </t>
+  </si>
+  <si>
+    <t>to test the purchase button with null  credit card field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it shoulld not booked order with null credit card field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the purchase button with null month field </t>
+  </si>
+  <si>
+    <t>) Enter the URL 2) press the enter key 3) click on the cart button 4) click on the place order button 5) Click on the purchase button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not booked order with null  month  field </t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the purchase button with null  year field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not booked order with null year field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) Enter the URL 2) press the enter key 3) click on the cart button 4) click on the place order button 5) Click on the close button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it close the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log in icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the login icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) Enter the URL 2) press the enter key 3) click on the  log in icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should open the log in page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it open the log in page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the cross button </t>
+  </si>
+  <si>
+    <t>) Enter the URL 2) press the enter key 3) click on the  cross icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should close the log in page </t>
+  </si>
+  <si>
+    <t>it close the log in page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the log in button  with valid username and  password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) Enter the URL 2) press the enter key 3) click on the login button </t>
+  </si>
+  <si>
+    <t>username :Bhumikapanwar4717 password : bhumika4717</t>
+  </si>
+  <si>
+    <t>it should log in  with valid username and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it logged in succesfully </t>
+  </si>
+  <si>
+    <t>to test the log in button with invalid username and invalid  password</t>
+  </si>
+  <si>
+    <t>username anchl14   paassword : aanchl@14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should  not log in  with invalid username and invalid password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it works as expected </t>
+  </si>
+  <si>
+    <t>to test the log in button with invalid username and  valid password</t>
+  </si>
+  <si>
+    <t>) Enter the URL 2) press the enter key 3) click on the login button</t>
+  </si>
+  <si>
+    <t>invalid username : bhumika  password : bhumika4717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not log in with invalid username and valid password </t>
+  </si>
+  <si>
+    <t>to test the log in button with valid username and   wrong password</t>
+  </si>
+  <si>
+    <t>valid username: bhumikapanwar4717       wrong password : bhumika14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not log in with valid username and wrong password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the log in button with valid username and   null  password field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid username: bhumikapanwar4717    Password field  : null  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not login with valid username and null password field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the log in button with null username field  and   valid password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">usernamefield :null  password: bhumika4717 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not login with null username field and valid password  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the log in button with null username field  and   null password field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not login with null username field and password field  </t>
+  </si>
+  <si>
+    <t>to test the close button</t>
+  </si>
+  <si>
+    <t>) Enter the URL 2) press the enter key 3) click on the  close button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should  close the log in page </t>
+  </si>
+  <si>
+    <t>to test the welcome button</t>
+  </si>
+  <si>
+    <t>1) Enter the URL 2) press the enter key 3) click on the welcome button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should refresh the page </t>
+  </si>
+  <si>
+    <t>log out button</t>
+  </si>
+  <si>
+    <t>to test the log out button</t>
+  </si>
+  <si>
+    <t>1) Enter the URL 2) press the enter key 3) click on the log out button</t>
+  </si>
+  <si>
+    <t>it should log out from the applicstion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the sign up icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) Enter the URL 2) press the enter key 3) click on the sign up icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should open the sign up page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it open the sign up page </t>
+  </si>
+  <si>
+    <t>1)Enter the URL 2) press the enter key 3) click on the cross button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should close the sign up page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the sign up   with registered username and password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3)  click on the sign up button </t>
+  </si>
+  <si>
+    <t>username: Bhumikapanwar4717 password: bhumika 4717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should sign up with registered username and Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it works as expected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the sign up button with non registered username and password </t>
+  </si>
+  <si>
+    <t>username: anchl41 password aanchl1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not   sign up  with non registered username and password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it works aas expexted </t>
+  </si>
+  <si>
+    <t>to test the sign up button with null username field and  null password field</t>
+  </si>
+  <si>
+    <t>it should not  sign up  with  null username  field and password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to test the sign up button with null username field and Valid password field</t>
+  </si>
+  <si>
+    <t>username field : null password : bhumika4717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not sign up null username field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the sign up button with username and  null password field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: Bhumikapanwar4717 password:  null field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should not sign up null password field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3)  click on the close button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it close the sign up Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slideshow </t>
+  </si>
+  <si>
+    <t>to test the left button of slideshow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3)  click on the  left button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should move to next image </t>
+  </si>
+  <si>
+    <t>it works as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the right button of slideshow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3)  click on the  right button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categories button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the categories icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should open  the categories of relevent products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone  category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the phone category button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the phone category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should open the phone related products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It open the phone related products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laptop category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the laptop  category button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the  laptop  category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should open the laptop related products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it open the laptop  related products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moniter category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the moniter category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the  moniter   category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should open the moniter related products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the product image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the product image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should open the product  related description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it  open the product`s description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product  name </t>
+  </si>
+  <si>
+    <t>to test the product name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the product name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to cart item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the Add to cart item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the product name 5) click on the add to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should add product to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the previous button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the previous buttoon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should opens the previous page of products`s categories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it opens the previous page of product`s categories  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product`s image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the product`s image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the previous buttoon 5) click on the product image </t>
+  </si>
+  <si>
+    <t>it  should open the product  related description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it does not  open product`s description, it refresh the page only. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productsname </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the product`s name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to test the next button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the next buttoon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should opens the next page of products`s categories </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> product`s name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the next buttoon 5) click on the product`s name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> product`s image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter the URL 2) press the enter key 3) click on the categories 4) click on the next buttoon 5) click on the product`s image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defect_ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case_ID </t>
+  </si>
+  <si>
+    <t>Test case description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-conditions </t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defect type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defect priority </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defect severity </t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tester name</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks </t>
+  </si>
+  <si>
+    <t>Functionality_ID</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Bhumika panwar</t>
+  </si>
+  <si>
+    <t>1)Enter the URL                             2) Press the enter  key                             3) tap on the contact button                               4) click on the  send message button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +1106,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -356,7 +1157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -390,11 +1191,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,86 +1221,171 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,14 +1397,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -543,7 +1445,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -615,7 +1517,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,11 +1690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,34 +1705,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>51</v>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
     </row>
     <row r="5" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -840,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
@@ -849,11 +1751,11 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
     </row>
     <row r="8" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -863,20 +1765,20 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -886,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
@@ -904,29 +1806,29 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="1">
         <v>401</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>62</v>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>402</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>45</v>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -937,7 +1839,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,32 +1854,32 @@
         <v>500</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>501</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>502</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.55" x14ac:dyDescent="0.35">
@@ -995,7 +1897,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,32 +1905,32 @@
         <v>601</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>602</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>602</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>603</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,10 +1938,10 @@
         <v>604</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1047,89 +1949,89 @@
         <v>605</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18" t="s">
-        <v>65</v>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="1">
         <v>700</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>66</v>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="1">
         <v>701</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>62</v>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="A31" s="1">
         <v>702</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>67</v>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="A32" s="1">
         <v>703</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>33</v>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="1">
         <v>704</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>84</v>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="1">
         <v>705</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>82</v>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="18" t="s">
-        <v>24</v>
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C35" s="4"/>
     </row>
@@ -1137,225 +2039,231 @@
       <c r="A36" s="3">
         <v>800</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>28</v>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>801</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>62</v>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+      <c r="A38" s="1">
         <v>802</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>75</v>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+      <c r="A39" s="1">
         <v>803</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>33</v>
+      <c r="B39" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="18" t="s">
-        <v>34</v>
+      <c r="B41" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
+      <c r="A42" s="1">
         <v>900</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>52</v>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+      <c r="A43" s="1">
         <v>901</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>53</v>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="17"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18" t="s">
-        <v>35</v>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+      <c r="A46" s="1">
         <v>1000</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
+      <c r="A47" s="1">
         <v>1001</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
+      <c r="A48" s="1">
         <v>1002</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>36</v>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
+      <c r="A49" s="1">
         <v>1003</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>37</v>
+      <c r="B49" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="24"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="19">
+      <c r="A52" s="1">
         <v>1100</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>78</v>
+      <c r="B52" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
+      <c r="A53" s="1">
         <v>1101</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="19">
-        <v>1102</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="1">
         <v>1103</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>39</v>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="A56" s="1">
         <v>1104</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>60</v>
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A7:C7"/>
@@ -1367,74 +2275,1967 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="76" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="52.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>8</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>9</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>11</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
-        <v>700</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
+        <v>22</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>23</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>24</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>25</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <v>26</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>701</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>40</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>702</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>41</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
-        <v>703</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="C52" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>43</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>45</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>46</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>47</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>48</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>49</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>52</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>54</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>55</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>56</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>57</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="20">
+        <v>58</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>59</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>60</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C73" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>61</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="20">
+        <v>62</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J75" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="10">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1442,13 +4243,766 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="26.21875" customWidth="1"/>
+    <col min="17" max="17" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45">
+        <v>402</v>
+      </c>
+      <c r="C2" s="46">
+        <v>5</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:17" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="36"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="35"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="35"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="35"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="35"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="35"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="I48" s="31"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="I52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="G59" s="40"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="31"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="36"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="31"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="31"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="36"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>